--- a/biology/Zoologie/Chevêchette_brune/Chevêchette_brune.xlsx
+++ b/biology/Zoologie/Chevêchette_brune/Chevêchette_brune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_brune</t>
+          <t>Chevêchette_brune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucidium brasilianum
 La Chevêchette brune (Glaucidium brasilianum) est une espèce d'oiseau de la famille des Strigidae, qui vit sur les continents américains.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_brune</t>
+          <t>Chevêchette_brune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ entre 15 et 20 cm de longueur pour un poids généralement compris entre 46 et 90 g[1],[2]. Son plumage est brun ou roux dessus et blanc rayé de brun ou de roux dessous (existence de deux morphes). Deux taches sombres cerclées de blanc sur la nuque simulent des yeux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ entre 15 et 20 cm de longueur pour un poids généralement compris entre 46 et 90 g,. Son plumage est brun ou roux dessus et blanc rayé de brun ou de roux dessous (existence de deux morphes). Deux taches sombres cerclées de blanc sur la nuque simulent des yeux.
 Cette espèce est très proche de la Chevêchette à tête grise et de la Chevêchette du Costa Rica.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_brune</t>
+          <t>Chevêchette_brune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit aux Amériques : de l'Arizona, au sud des États-Unis, jusqu'en Argentine.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_brune</t>
+          <t>Chevêchette_brune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fréquente les milieux boisés, notamment les plantations, les lisières, les clairières et les banlieues. Les chevêchettes brunes vivent en-dessous de 1500 mètres, elle restent donc toujours à l'écart des montagnes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fréquente les milieux boisés, notamment les plantations, les lisières, les clairières et les banlieues. Les chevêchettes brunes vivent en-dessous de 1500 mètres, elle restent donc toujours à l'écart des montagnes.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_brune</t>
+          <t>Chevêchette_brune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chevêchette brune est à la fois diurne et nocturne, mais concentre l'essentiel de ses activités à l'aube et au crépuscule.
-Les femelles pondent 3 à 5 œufs par saison et la durée de l'incubation est de 23 à 28 jours. La saison de reproduction s'étend de la fin de l'hiver au début du printemps. Les petits apprennent à voler entre le 27ème et le 30ème jour après leur éclosion mais ne deviennent autonomes que vers leur 8ème semaine[4].
+Les femelles pondent 3 à 5 œufs par saison et la durée de l'incubation est de 23 à 28 jours. La saison de reproduction s'étend de la fin de l'hiver au début du printemps. Les petits apprennent à voler entre le 27ème et le 30ème jour après leur éclosion mais ne deviennent autonomes que vers leur 8ème semaine.
 </t>
         </is>
       </c>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_brune</t>
+          <t>Chevêchette_brune</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau consomme surtout des insectes et des lézards, mais aussi des petits oiseaux et mammifères et, plus rarement, des amphibiens[1],[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau consomme surtout des insectes et des lézards, mais aussi des petits oiseaux et mammifères et, plus rarement, des amphibiens,.
 </t>
         </is>
       </c>
